--- a/HorasAdicionaisMedeiros.xlsx
+++ b/HorasAdicionaisMedeiros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Atualização dos scripts de validação da migração</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -594,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
